--- a/bots/crawl_ch/output/toilet_coop_2022-09-16.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,224 +531,226 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6817200</t>
+          <t>5721736</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg decor 16 Rollen</t>
+          <t>Super Silk Taschentücher Würfelbox</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-decor-16-rollen/p/6817200</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/super-silk-taschentuecher-wuerfelbox/p/5721736</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>60ST</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Super Silk</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.04/1ST</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>1ST</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Zewa</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10.00/1ST</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg decor 16 Rollen 54% Aktion 10.00 Schweizer Franken statt 22.00 Schweizer Franken</t>
+          <t>Super Silk Taschentücher Würfelbox 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6283679</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6Rol</t>
+          <t>4x 50ST</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.75/1Rol</t>
+          <t>0.04/1ST</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.50 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>6283679</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-toilettenpapier-camomille-weiss-4-lagig-6-rollen/p/6283679</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4x 50ST</t>
+          <t>6Rol</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.04/1ST</t>
+          <t>0.75/1Rol</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST 35% Aktion 7.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>Oecoplan Toilettenpapier Camomille weiss 4-lagig 6 Rollen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -821,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -894,7 +896,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -967,7 +969,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1026,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1097,135 +1099,135 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6724076</t>
+          <t>6498157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
+          <t>subito Haushaltspapier weiss 2 Rollen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>40ST</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>3</v>
-      </c>
+          <t>100BLT</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Duckies</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.07/1ST</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
+          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6498157</t>
+          <t>6724076</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-weiss-2-rollen/p/6498157</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/oecoplan-feuchtes-toilettenpapier-duckies-natural-40-stueck/p/6724076</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>100BLT</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>40ST</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Duckies</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.07/1ST</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier weiss 2 Rollen 2.75 Schweizer Franken</t>
+          <t>Oecoplan feuchtes Toilettenpapier Duckies natural 40 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1282,36 +1284,36 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6711017</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1320,12 +1322,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1335,7 +1337,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1345,46 +1347,46 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Tempo feuchte Limited Edition 3.45 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6711017</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Tempo feuchte Limited Edition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feuchte-limited-edition/p/6711017</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>42ST</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1393,12 +1395,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1408,7 +1410,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1418,17 +1420,17 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo feuchte Limited Edition 3.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1501,45 +1503,45 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6638996</t>
+          <t>6433417</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher</t>
+          <t>Plenty Fun Design extra Long</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>176BLT</t>
+          <t>144BLT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Plenty</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1553,50 +1555,50 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Oecoplan Allzweck Papiertücher 3.20 Schweizer Franken</t>
+          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6433417</t>
+          <t>6638996</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long</t>
+          <t>Oecoplan Allzweck Papiertücher</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/plenty-fun-design-extra-long/p/6433417</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/oecoplan-allzweck-papiertuecher/p/6638996</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>144BLT</t>
+          <t>176BLT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Plenty</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1610,12 +1612,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Plenty Fun Design extra Long 6.70 Schweizer Franken</t>
+          <t>Oecoplan Allzweck Papiertücher 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1690,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1763,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1836,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1909,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1982,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2055,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -2126,210 +2128,210 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6283677</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>32Rol</t>
         </is>
       </c>
       <c r="E26" t="n">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.46/1Rol</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>144ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.05/1ST</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 33% Aktion 6.65 Schweizer Franken statt 9.95 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6283677</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/oecoplan-goldmelisse-blau-3-lagig-32-rollen/p/6283677</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>32Rol</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.46/1Rol</t>
+          <t>0.05/1ST</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Oecoplan Goldmelisse blau 3-lagig 32 Rollen 30% Aktion 14.80 Schweizer Franken statt 21.20 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 33% Aktion 6.65 Schweizer Franken statt 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -2354,9 +2356,11 @@
           <t>9Rol</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2400,7 +2404,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2477,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2548,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2621,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2694,200 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-16 07:09:50</t>
+          <t>2022-09-16 21:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7041905</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Tela Taschentücher Spa 10x10 Stück</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tela-taschentuecher-spa-10x10-stueck/p/7041905</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tela</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Tela Taschentücher Spa 10x10 Stück 2.55 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2022-09-16 21:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7041906</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Tela Taschentücher Spa Box 90Stück</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/tela-taschentuecher-spa-box-90stueck/p/7041906</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>90ST</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Tela</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.03/1ST</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tela Taschentücher Spa Box 90Stück 3.10 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2022-09-16 21:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7042418</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Tempo feucht Limited Edition</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/tempo-feucht-limited-edition/p/7042418</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>86ST</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Tempo</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.08/1ST</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Tempo feucht Limited Edition 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2022-09-16 21:00:05</t>
         </is>
       </c>
     </row>
